--- a/07-julio/6-portal-cliente/ramirez/RAMIREZ.xlsx
+++ b/07-julio/6-portal-cliente/ramirez/RAMIREZ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\06-junio\7_RAMIREZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\07-julio\6-portal-cliente\ramirez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA71F80-D579-40D7-9FFC-94636D12E35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127D5D32-2B1A-4F14-9CA0-357DE2DEBD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>EMPLEADO</t>
   </si>
@@ -71,14 +71,32 @@
     <t>IBAÑEZ</t>
   </si>
   <si>
-    <t>JUNIO Y SAC 2025</t>
+    <t>JULIO 2025</t>
+  </si>
+  <si>
+    <t>REM1</t>
+  </si>
+  <si>
+    <t>REM4</t>
+  </si>
+  <si>
+    <t>REM5</t>
+  </si>
+  <si>
+    <t>SIPA</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PAMI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +115,12 @@
     <font>
       <sz val="24"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -487,7 +511,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +569,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="15">
-        <v>1151309.75</v>
+        <v>1182667.04</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
@@ -582,32 +606,32 @@
         <v>10</v>
       </c>
       <c r="B5" s="7">
-        <v>551589.97</v>
+        <v>580391.86</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>48129.81</v>
+        <v>21883.32</v>
       </c>
       <c r="E5" s="7">
         <v>0</v>
       </c>
       <c r="F5" s="7">
         <f>+B5+C5</f>
-        <v>551589.97</v>
+        <v>580391.86</v>
       </c>
       <c r="G5" s="7">
         <f>+D5+E5</f>
-        <v>48129.81</v>
+        <v>21883.32</v>
       </c>
       <c r="H5" s="7">
         <f>+B5+C5+D5+E5</f>
-        <v>599719.78</v>
+        <v>602275.17999999993</v>
       </c>
       <c r="I5" s="7">
         <f>+H5*2</f>
-        <v>1199439.56</v>
+        <v>1204550.3599999999</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
@@ -625,7 +649,7 @@
       <c r="A7" s="8"/>
       <c r="B7" s="9">
         <f>SUM(B5:B6)</f>
-        <v>551589.97</v>
+        <v>580391.86</v>
       </c>
       <c r="C7" s="9">
         <f>SUM(C5:C6)</f>
@@ -633,7 +657,7 @@
       </c>
       <c r="D7" s="9">
         <f>SUM(D5:D6)</f>
-        <v>48129.81</v>
+        <v>21883.32</v>
       </c>
       <c r="E7" s="9">
         <f>SUM(E5:E6)</f>
@@ -641,19 +665,19 @@
       </c>
       <c r="F7" s="9">
         <f>SUM(F5:F6)</f>
-        <v>551589.97</v>
+        <v>580391.86</v>
       </c>
       <c r="G7" s="7">
         <f>+D7+E7</f>
-        <v>48129.81</v>
+        <v>21883.32</v>
       </c>
       <c r="H7" s="9">
         <f>SUM(H5:H6)</f>
-        <v>599719.78</v>
+        <v>602275.17999999993</v>
       </c>
       <c r="I7" s="9">
         <f>SUM(I5:I6)</f>
-        <v>1199439.56</v>
+        <v>1204550.3599999999</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -727,32 +751,32 @@
         <v>10</v>
       </c>
       <c r="B11" s="12">
-        <v>551589.97</v>
+        <v>0</v>
       </c>
       <c r="C11" s="12">
-        <v>275794.99</v>
+        <v>0</v>
       </c>
       <c r="D11" s="12">
-        <v>48129.891000000003</v>
+        <v>0</v>
       </c>
       <c r="E11" s="12">
-        <v>24065.41</v>
+        <v>0</v>
       </c>
       <c r="F11" s="12">
         <f>+B11+C11</f>
-        <v>827384.96</v>
+        <v>0</v>
       </c>
       <c r="G11" s="12">
         <f>+D11+E11</f>
-        <v>72195.301000000007</v>
+        <v>0</v>
       </c>
       <c r="H11" s="12">
         <f>+B11+C11+D11+E11</f>
-        <v>899580.26100000006</v>
+        <v>0</v>
       </c>
       <c r="I11" s="12">
         <f>+H11*2</f>
-        <v>1799160.5220000001</v>
+        <v>0</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -774,35 +798,35 @@
       <c r="A13" s="13"/>
       <c r="B13" s="14">
         <f>SUM(B11:B12)</f>
-        <v>551589.97</v>
+        <v>0</v>
       </c>
       <c r="C13" s="14">
         <f>SUM(C11:C12)</f>
-        <v>275794.99</v>
+        <v>0</v>
       </c>
       <c r="D13" s="14">
         <f>SUM(D11:D12)</f>
-        <v>48129.891000000003</v>
+        <v>0</v>
       </c>
       <c r="E13" s="14">
         <f>SUM(E11:E12)</f>
-        <v>24065.41</v>
+        <v>0</v>
       </c>
       <c r="F13" s="14">
         <f>SUM(F11:F12)</f>
-        <v>827384.96</v>
+        <v>0</v>
       </c>
       <c r="G13" s="12">
         <f>+D13+E13</f>
-        <v>72195.301000000007</v>
+        <v>0</v>
       </c>
       <c r="H13" s="14">
         <f>SUM(H11:H12)</f>
-        <v>899580.26100000006</v>
+        <v>0</v>
       </c>
       <c r="I13" s="14">
         <f>SUM(I11:I12)</f>
-        <v>1799160.5220000001</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -838,8 +862,12 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="4">
+        <v>112849.67</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -851,8 +879,12 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="4">
+        <v>715124.85</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -864,8 +896,12 @@
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="4">
+        <v>112849.67</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -890,10 +926,19 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="4">
+        <v>12413.46</v>
+      </c>
+      <c r="G20" s="4">
+        <v>63843.1</v>
+      </c>
+      <c r="H20" s="4">
+        <f>+G20-F20</f>
+        <v>51429.64</v>
+      </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -903,10 +948,19 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="4">
+        <v>21453.74</v>
+      </c>
+      <c r="G21" s="4">
+        <v>36136.46</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" ref="H21:H22" si="0">+G21-F21</f>
+        <v>14682.719999999998</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -916,10 +970,19 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3385.49</v>
+      </c>
+      <c r="G22" s="4">
+        <v>17411.759999999998</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="0"/>
+        <v>14026.269999999999</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -973,6 +1036,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I7">
     <sortCondition descending="1" ref="A6:A7"/>
   </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
 </worksheet>
